--- a/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-34,02%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>305,28%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>143,99%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 6,3</t>
+          <t>-15,19; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,55</t>
+          <t>4,07; 22,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,04</t>
+          <t>2,35; 20,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-7,23; 25,26</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-65,66; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>-66,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>138,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 2,48</t>
+          <t>-18,68; 2,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 9,68</t>
+          <t>-10,82; 11,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 7,28</t>
+          <t>-10,95; 9,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 190,51</t>
+          <t>-2,81; 27,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 528,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 395,8</t>
+          <t>-80,82; 531,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-85,0; 465,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 944,29</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>116,82%</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>207,62%</t>
+          <t>408,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>326,42%</t>
+          <t>566,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>214,18%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,49</t>
+          <t>0,84; 13,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 16,57</t>
+          <t>2,8; 17,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 16,16</t>
+          <t>7,64; 21,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 703,34</t>
+          <t>-0,44; 16,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,96; 1284,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,05; 1720,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-49,54; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67,07%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 12,14</t>
+          <t>-5,05; 13,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 9,12</t>
+          <t>-6,44; 11,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 16,33</t>
+          <t>-0,87; 19,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 264,16</t>
+          <t>-2,02; 20,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 160,09</t>
+          <t>-38,03; 342,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 263,89</t>
+          <t>-50,38; 360,77</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 415,75</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 246,34</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>174,32%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>162,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 18,03</t>
+          <t>-6,46; 22,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 23,79</t>
+          <t>0,88; 26,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 17,52</t>
+          <t>-15,97; 19,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 218,48</t>
+          <t>-9,01; 22,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 496,07</t>
+          <t>-37,18; 249,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 197,44</t>
+          <t>-4,42; 658,18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-56,1; 148,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-41,76; 228,19</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136,27%</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>103,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76,19%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 29,97</t>
+          <t>-7,02; 29,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 15,44</t>
+          <t>-7,7; 27,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 24,88</t>
+          <t>-9,56; 23,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,82; 441,28</t>
+          <t>-2,57; 41,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 194,76</t>
+          <t>-49,14; 793,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 401,35</t>
+          <t>-46,34; 591,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-69,85; 692,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-15,17; 336,35</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>104,52%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>107,33%</t>
+          <t>101,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,63</t>
+          <t>-2,06; 6,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,76</t>
+          <t>1,97; 10,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,01</t>
+          <t>2,39; 11,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,07; 138,75</t>
+          <t>4,67; 18,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,47; 200,33</t>
+          <t>-18,65; 102,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,88; 205,25</t>
+          <t>22,47; 233,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 206,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 221,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,38</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-34,02%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>143,99%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.868970594361158</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.44300163133669</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.249728860068338</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.49317114763884</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.494437022764498</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.741862325302469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 7,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 22,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 20,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 25,26</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-65,66; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.06242347476513</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.620567941282084</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.139658192721146</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.790492484260098</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.6075912729792886</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.913899403675932</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24.48604299765274</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.74090863877766</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.06363356715173</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-66,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>138,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 2,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 11,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 9,72</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 27,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-80,82; 531,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-85,0; 465,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 944,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.606591190286677</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.349352693920748</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.177648882288378</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.01605288893034</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.7134475869233019</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1312095066604296</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1508367904694521</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.547075790218564</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>408,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>566,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>214,18%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-28.20065954623317</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.47478534395267</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.1950177819</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.277337526805723</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.8802174021589156</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8841709740895547</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2773929928931254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 13,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 17,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 21,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 16,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-49,54; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.8783358161556365</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.638935334855848</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.928874496475824</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>28.83988611143985</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>3.585254441757089</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.009618100291666</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>11.49328324987602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +813,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,17</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>46,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,72%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>106,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,07%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.275180865751538</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.38306801635841</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>13.64212315026016</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.841243150120141</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>4.811220984630981</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5.383571064795937</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.402465037115668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 13,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 11,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 19,67</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 20,44</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,03; 342,61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-50,38; 360,77</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 415,75</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-12,32; 246,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.620021814839558</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.469309520168819</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>7.581041582446605</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2141852394698609</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.4734753982026587</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.06855688421219</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.96819717970641</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.5651196349411</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.78704049515285</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>43,7%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>162,06%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>34,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 22,27</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 26,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,97; 19,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 22,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,18; 249,62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 658,18</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-56,1; 148,67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,76; 228,19</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.037954934586079</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.214193102947833</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.524906892477361</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.442128570896225</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5036293709461162</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2362251619932824</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.050483422105462</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7188753868359673</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,99</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>103,11%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>72,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>63,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>76,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.657833943300251</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.432708581052311</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.6780997876809511</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.525589013547967</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3724252519808841</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5672459284264506</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.07778024702972836</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.09992937386343424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 29,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 27,89</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 23,64</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 41,07</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-49,14; 793,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,34; 591,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-69,85; 692,98</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-15,17; 336,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.62717915729067</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.60580286894581</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.16496375067375</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.42508559007397</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.544152062322535</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.02640230700795</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.187346444456916</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.563442647196958</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1001,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>30,98%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>101,98%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>94,48%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>94,27%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.580563813743982</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>13.64274972264477</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.198710410389516</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.605438520443945</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.5392139210976141</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.828381244978585</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.1640515321174997</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3298526364365964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 6,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 10,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,41</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 18,71</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,65; 102,64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>22,47; 233,65</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 206,53</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>31,66; 221,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.495261663911668</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.883929064112614</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-17.38383904243191</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-9.158958412382898</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.3297529207762449</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.009988973415988731</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.6008203988236664</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.444726189241486</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>22.94960806465362</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>27.47750761813692</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19.05004277232459</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>21.26012795960238</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.734070267391511</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>7.288295895587337</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.528233982640973</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.222317763851249</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>14.11069042436719</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>11.20167675095037</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>8.588229941598678</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>16.2296441916074</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.45319543750277</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.895567340338004</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.8370019830956934</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.7067781686560901</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-2.237774304734415</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-6.611562238666077</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-7.861380262879491</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-4.480156913252705</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.3730151721335805</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.3848174802290201</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.6775503403376282</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.2229640897725181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>31.53292815161504</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>31.1216488957544</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>28.00383467290707</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>39.27725164961346</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>10.14564963084963</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>7.011807238216257</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>8.983176984869408</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.075900160844382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.431688189288408</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.016362014088243</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.994447558073155</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>11.29912008097642</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.2759172719613282</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.024042365330894</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9345083243580808</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.01369922079887</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.688356403344145</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.983234661921411</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2.342616265623536</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>5.171310688502454</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2697123426650136</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.2019028311170203</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.1778216048928021</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.3513292848363741</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.664758721210276</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.25137242107869</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>11.28245056664246</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>18.80164623656416</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.9665726505033044</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>2.456733833683471</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.06025856169178</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.215962930499261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1299,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
